--- a/209-CA_PricingDistrict_County.xlsx
+++ b/209-CA_PricingDistrict_County.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95698a3d472cff77/Desktop/Berkeley/209/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95698a3d472cff77/Desktop/w209_wine_fires/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A0A9FD0-B9F7-4D3C-AC47-2C749813C2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{0A0A9FD0-B9F7-4D3C-AC47-2C749813C2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E1B87A3-810B-4B5C-A54D-F65DC011E279}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B7051CC4-AF96-4B43-992B-E8CEC48789C6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$58</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Marin</t>
   </si>
@@ -66,15 +66,9 @@
     <t>Ventura</t>
   </si>
   <si>
-    <t>Santa Barbar</t>
-  </si>
-  <si>
     <t>San Luis Obispo</t>
   </si>
   <si>
-    <t>Yolo County</t>
-  </si>
-  <si>
     <t>Sacramento</t>
   </si>
   <si>
@@ -144,9 +138,6 @@
     <t>San Joaquin</t>
   </si>
   <si>
-    <t>Sacramento County</t>
-  </si>
-  <si>
     <t>Stanislaus</t>
   </si>
   <si>
@@ -198,28 +189,34 @@
     <t>Yolo</t>
   </si>
   <si>
-    <t>Mendocino County</t>
-  </si>
-  <si>
-    <t>Lake County</t>
-  </si>
-  <si>
     <t>Sonoma</t>
   </si>
   <si>
-    <t>Napa County</t>
-  </si>
-  <si>
     <t>Alameda</t>
   </si>
   <si>
-    <t>Solano County</t>
-  </si>
-  <si>
     <t>Region</t>
   </si>
   <si>
     <t>County</t>
+  </si>
+  <si>
+    <t>Lake</t>
+  </si>
+  <si>
+    <t>Mendocino</t>
+  </si>
+  <si>
+    <t>Napa</t>
+  </si>
+  <si>
+    <t>Santa Barbara</t>
+  </si>
+  <si>
+    <t>Solano</t>
+  </si>
+  <si>
+    <t>Butte</t>
   </si>
 </sst>
 </file>
@@ -571,502 +568,493 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD89D482-F4D5-4C9F-AA9E-E41FD582A8FB}">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>9</v>
-      </c>
-      <c r="B25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>9</v>
-      </c>
-      <c r="B26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>9</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>9</v>
-      </c>
-      <c r="B28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>9</v>
-      </c>
-      <c r="B29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>9</v>
-      </c>
-      <c r="B30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>9</v>
-      </c>
-      <c r="B31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>9</v>
-      </c>
-      <c r="B32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>9</v>
-      </c>
-      <c r="B33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>10</v>
-      </c>
-      <c r="B34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>10</v>
-      </c>
-      <c r="B35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>10</v>
-      </c>
-      <c r="B36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>10</v>
-      </c>
-      <c r="B37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>10</v>
-      </c>
-      <c r="B38" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>10</v>
-      </c>
-      <c r="B39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>10</v>
-      </c>
-      <c r="B40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>11</v>
-      </c>
-      <c r="B41" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>11</v>
-      </c>
-      <c r="B42" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>12</v>
-      </c>
-      <c r="B43" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>12</v>
-      </c>
-      <c r="B44" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>13</v>
-      </c>
-      <c r="B45" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>13</v>
-      </c>
-      <c r="B46" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>13</v>
-      </c>
-      <c r="B47" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>13</v>
-      </c>
-      <c r="B48" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>13</v>
-      </c>
-      <c r="B49" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>13</v>
-      </c>
-      <c r="B50" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>14</v>
-      </c>
-      <c r="B51" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>14</v>
-      </c>
-      <c r="B52" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>15</v>
-      </c>
-      <c r="B53" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>15</v>
-      </c>
-      <c r="B54" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>16</v>
-      </c>
-      <c r="B55" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>16</v>
-      </c>
-      <c r="B56" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>16</v>
-      </c>
-      <c r="B57" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>16</v>
-      </c>
-      <c r="B58" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>17</v>
-      </c>
-      <c r="B59" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>17</v>
-      </c>
-      <c r="B60" t="s">
-        <v>52</v>
+      <c r="B59">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1" xr:uid="{FD89D482-F4D5-4C9F-AA9E-E41FD582A8FB}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B60">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B60">
-    <sortCondition ref="B2:B60"/>
+  <autoFilter ref="A1:A58" xr:uid="{FD89D482-F4D5-4C9F-AA9E-E41FD582A8FB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A58">
+    <sortCondition ref="A2:A58"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
